--- a/Test Case.xlsx
+++ b/Test Case.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.b\AI in Testing (Prompt Engineering)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D9412B7-65A0-4529-B797-05D6CE50889E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90DEBB1-DDEB-4BA3-9F3B-0D0A46A7E372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BF3A0B66-C158-4113-998A-C6E84DB8B4DB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{BF3A0B66-C158-4113-998A-C6E84DB8B4DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="122">
   <si>
     <t>User Accounts Module</t>
   </si>
@@ -282,13 +283,155 @@
   </si>
   <si>
     <t>No recommendations or generic recommendations are displayed</t>
+  </si>
+  <si>
+    <t>Environment: Test</t>
+  </si>
+  <si>
+    <r>
+      <t>Web Base Url:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> https://restful-booker.herokuapp.com</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Authorization:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> Generated token (Only For Put, Patch And Delete)</t>
+    </r>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Scenario description</t>
+  </si>
+  <si>
+    <t>Request Name</t>
+  </si>
+  <si>
+    <t>HTTP Method</t>
+  </si>
+  <si>
+    <t>End Point</t>
+  </si>
+  <si>
+    <t>Content Type</t>
+  </si>
+  <si>
+    <t>Body/Payload</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Status Code</t>
+  </si>
+  <si>
+    <t>Response Time</t>
+  </si>
+  <si>
+    <t>Response Parameters</t>
+  </si>
+  <si>
+    <t>Add a new book</t>
+  </si>
+  <si>
+    <t>AddBook</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>/Library/Addbook.php</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>{ "name": "Learn Appium Automation with Java", "isbn": "bcd", "aisle": "227", "author": "John foe" }</t>
+  </si>
+  <si>
+    <t>&lt; 1s</t>
+  </si>
+  <si>
+    <t>{ "Msg": "successfully added", "ID": "bcd227" }</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Get books by author</t>
+  </si>
+  <si>
+    <t>GetBooksByAuthor</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/Library/GetBook.php?AuthorName=somename</t>
+  </si>
+  <si>
+    <t>AuthorName=somename</t>
+  </si>
+  <si>
+    <t>[{ "Name": "bookname", "Isbn": "A2fdsf", "Aisle": 32 }]</t>
+  </si>
+  <si>
+    <t>Get book by ID</t>
+  </si>
+  <si>
+    <t>GetBookByID</t>
+  </si>
+  <si>
+    <t>/Library/GetBook.php?ID=3389</t>
+  </si>
+  <si>
+    <t>ID=3389</t>
+  </si>
+  <si>
+    <t>{ "book_name": "Selenium automation using Java", "isbn": "a23hd738", "aisle": "1223" }</t>
+  </si>
+  <si>
+    <t>Delete a book</t>
+  </si>
+  <si>
+    <t>DeleteBook</t>
+  </si>
+  <si>
+    <t>/Library/DeleteBook.php</t>
+  </si>
+  <si>
+    <t>{ "ID": "a23h345122332" }</t>
+  </si>
+  <si>
+    <t>{ "msg": "book is successfully deleted" }</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,16 +459,35 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF242424"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -422,11 +584,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -441,36 +668,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -479,6 +706,47 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,7 +1084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4305AB1-8337-4678-9A93-9F7476B974EF}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4:E6"/>
     </sheetView>
   </sheetViews>
@@ -832,15 +1100,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -875,324 +1143,324 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="10"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="17"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="11"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="18"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="12"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6" t="s">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="6" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="20.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="3"/>
@@ -1227,231 +1495,295 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E32" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="6" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6" t="s">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="6" t="s">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6" t="s">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7" ht="33" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D40" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D41" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="E41" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="6" t="s">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D43" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="6" t="s">
+      <c r="A44" s="15"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="G19:G21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G37:G39"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="G4:G6"/>
     <mergeCell ref="A27:G27"/>
@@ -1468,71 +1800,244 @@
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
     <mergeCell ref="G41:G42"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="G37:G39"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="G19:G21"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F4:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BB12C3-9FF3-4599-83A9-0BA1F684C95B}">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="29.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="9" max="9" width="29.6328125" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="J5" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="21">
+        <v>1</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="32"/>
+      <c r="J7" s="33">
+        <v>200</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="21">
+        <v>2</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="33">
+        <v>200</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="21">
+        <v>3</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="32"/>
+      <c r="J9" s="33">
+        <v>200</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="21">
+        <v>4</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33">
+        <v>200</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>